--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H2">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I2">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J2">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N2">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O2">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P2">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q2">
-        <v>0.03240138156811111</v>
+        <v>0.6728297622737779</v>
       </c>
       <c r="R2">
-        <v>0.291612434113</v>
+        <v>6.055467860464</v>
       </c>
       <c r="S2">
-        <v>3.010362668961106E-05</v>
+        <v>0.0003635205370161798</v>
       </c>
       <c r="T2">
-        <v>3.010755612166448E-05</v>
+        <v>0.000363825341207359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H3">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I3">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J3">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P3">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q3">
-        <v>0.1456012061746667</v>
+        <v>0.8611104618826667</v>
       </c>
       <c r="R3">
-        <v>1.310410855572</v>
+        <v>7.749994156944</v>
       </c>
       <c r="S3">
-        <v>0.0001352758476370975</v>
+        <v>0.0004652459731804544</v>
       </c>
       <c r="T3">
-        <v>0.0001352935052189311</v>
+        <v>0.0004656360719729977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H4">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I4">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J4">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N4">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O4">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P4">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q4">
-        <v>78.98007287943499</v>
+        <v>879.8460542036694</v>
       </c>
       <c r="R4">
-        <v>710.8206559149149</v>
+        <v>7918.614487833024</v>
       </c>
       <c r="S4">
-        <v>0.07337917443065967</v>
+        <v>0.4753685524177798</v>
       </c>
       <c r="T4">
-        <v>0.0733887526280986</v>
+        <v>0.4757671387763968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H5">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I5">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J5">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N5">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O5">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P5">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q5">
-        <v>0.06879318969249999</v>
+        <v>2.625148447923333</v>
       </c>
       <c r="R5">
-        <v>0.412759138155</v>
+        <v>15.75089068754</v>
       </c>
       <c r="S5">
-        <v>6.391469749329419E-05</v>
+        <v>0.001418331095092035</v>
       </c>
       <c r="T5">
-        <v>4.261536019385233E-05</v>
+        <v>0.0009463468902425896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4675276666666666</v>
+        <v>2.765038666666667</v>
       </c>
       <c r="H6">
-        <v>1.402583</v>
+        <v>8.295116</v>
       </c>
       <c r="I6">
-        <v>0.1632394805509195</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="J6">
-        <v>0.1632394805509196</v>
+        <v>0.5643238178805899</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N6">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O6">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P6">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q6">
-        <v>96.47238349124132</v>
+        <v>160.485667317812</v>
       </c>
       <c r="R6">
-        <v>868.2514514211719</v>
+        <v>1444.371005860308</v>
       </c>
       <c r="S6">
-        <v>0.08963101194843985</v>
+        <v>0.08670816785752147</v>
       </c>
       <c r="T6">
-        <v>0.08964271150128648</v>
+        <v>0.08678087080077022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H7">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I7">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J7">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N7">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O7">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P7">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q7">
-        <v>0.1660884779852222</v>
+        <v>0.5194462695986667</v>
       </c>
       <c r="R7">
-        <v>1.494796301867</v>
+        <v>4.675016426388</v>
       </c>
       <c r="S7">
-        <v>0.0001543102576722715</v>
+        <v>0.0002806495750684747</v>
       </c>
       <c r="T7">
-        <v>0.0001543303998192268</v>
+        <v>0.0002808848937314468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H8">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I8">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J8">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P8">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q8">
-        <v>0.7463472715053333</v>
+        <v>0.6648050401719999</v>
       </c>
       <c r="R8">
-        <v>6.717125443548</v>
+        <v>5.983245361548001</v>
       </c>
       <c r="S8">
-        <v>0.0006934198035653744</v>
+        <v>0.0003591848915804226</v>
       </c>
       <c r="T8">
-        <v>0.0006935103157827461</v>
+        <v>0.000359486060425684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H9">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I9">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J9">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N9">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O9">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P9">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q9">
-        <v>404.849406440665</v>
+        <v>679.269521509712</v>
       </c>
       <c r="R9">
-        <v>3643.644657965985</v>
+        <v>6113.425693587408</v>
       </c>
       <c r="S9">
-        <v>0.376139374531951</v>
+        <v>0.3669998491200179</v>
       </c>
       <c r="T9">
-        <v>0.3761884720752497</v>
+        <v>0.3673075706399412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H10">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I10">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J10">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N10">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O10">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P10">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q10">
-        <v>0.3526317588575</v>
+        <v>2.0266992408425</v>
       </c>
       <c r="R10">
-        <v>2.115790553145</v>
+        <v>12.160195445055</v>
       </c>
       <c r="S10">
-        <v>0.0003276247590008545</v>
+        <v>0.001094997334707027</v>
       </c>
       <c r="T10">
-        <v>0.0002184450159481757</v>
+        <v>0.0007306103110266206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.396532333333333</v>
+        <v>2.134699</v>
       </c>
       <c r="H11">
-        <v>7.189597</v>
+        <v>6.404097</v>
       </c>
       <c r="I11">
-        <v>0.8367605194490804</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="J11">
-        <v>0.8367605194490806</v>
+        <v>0.4356761821194101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N11">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O11">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P11">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q11">
-        <v>494.5144486504387</v>
+        <v>123.900109487679</v>
       </c>
       <c r="R11">
-        <v>4450.630037853947</v>
+        <v>1115.100985389111</v>
       </c>
       <c r="S11">
-        <v>0.4594457900968908</v>
+        <v>0.06694150119803624</v>
       </c>
       <c r="T11">
-        <v>0.4595057616422807</v>
+        <v>0.06699763021428516</v>
       </c>
     </row>
   </sheetData>
